--- a/biology/Zoologie/Dysaphis/Dysaphis.xlsx
+++ b/biology/Zoologie/Dysaphis/Dysaphis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dysaphis est un genre d'insectes de l'ordre des hémiptères (les hémiptères sont caractérisés par leurs deux paires d'ailes dont l'une, en partie cornée, est transformée en hémiélytre), de la famille des Aphididae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dysaphis apiifolia
 Dysaphis devecta - puceron des galles rouges
